--- a/Data Files/Add visitor types.xlsx
+++ b/Data Files/Add visitor types.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>been there more than 10 times</t>
-  </si>
-  <si>
     <t>typename</t>
   </si>
   <si>
     <t>typedescription</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>visiting for the first time</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,18 +380,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
